--- a/Puntos Tumor.xlsx
+++ b/Puntos Tumor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rovir\Desktop\ROB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Windows\Documentos\GitHub\ROB_ShortProject1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA0E3FE-5FBE-4089-A062-CF9A5BCC2F21}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793E4F7E-E029-49F9-BC72-A01946E6FA0E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" activeTab="1" xr2:uid="{67132D6B-3FDE-42BF-AA39-F4C3B78D6DD0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{67132D6B-3FDE-42BF-AA39-F4C3B78D6DD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Imàgen" sheetId="1" r:id="rId1"/>
@@ -43,13 +43,13 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Xrel(mm)</t>
+    <t>Xrel(m)</t>
   </si>
   <si>
-    <t>Yrel(mm)</t>
+    <t>Yrel(m)</t>
   </si>
   <si>
-    <t>Zrel(mm)</t>
+    <t>Zrel(m)</t>
   </si>
 </sst>
 </file>
@@ -403,13 +403,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F78678C-34D0-44CB-B27F-ACDA23E6B800}">
   <dimension ref="A1:C103"/>
   <sheetViews>
-    <sheetView topLeftCell="A92" zoomScale="169" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView zoomScale="169" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -420,7 +420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>23</v>
       </c>
@@ -431,7 +431,7 @@
         <v>97.04</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>24</v>
       </c>
@@ -442,7 +442,7 @@
         <v>91.04</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>24</v>
       </c>
@@ -453,7 +453,7 @@
         <v>98.11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>24</v>
       </c>
@@ -464,7 +464,7 @@
         <v>103.81</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>24</v>
       </c>
@@ -475,7 +475,7 @@
         <v>98.38</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>25</v>
       </c>
@@ -486,7 +486,7 @@
         <v>90.23</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>25</v>
       </c>
@@ -497,7 +497,7 @@
         <v>98.92</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>25</v>
       </c>
@@ -508,7 +508,7 @@
         <v>105.72</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>25</v>
       </c>
@@ -519,7 +519,7 @@
         <v>98.65</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>26</v>
       </c>
@@ -530,7 +530,7 @@
         <v>88.88</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>26</v>
       </c>
@@ -541,7 +541,7 @@
         <v>99.46</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>26</v>
       </c>
@@ -552,7 +552,7 @@
         <v>106.26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>26</v>
       </c>
@@ -563,7 +563,7 @@
         <v>98.65</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>27</v>
       </c>
@@ -574,7 +574,7 @@
         <v>88.05</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>27</v>
       </c>
@@ -585,7 +585,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>27</v>
       </c>
@@ -596,7 +596,7 @@
         <v>108.7</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>27</v>
       </c>
@@ -607,7 +607,7 @@
         <v>97.83</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>28</v>
       </c>
@@ -618,7 +618,7 @@
         <v>86.96</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>28</v>
       </c>
@@ -629,7 +629,7 @@
         <v>98.65</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>28</v>
       </c>
@@ -640,7 +640,7 @@
         <v>113.05</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>28</v>
       </c>
@@ -651,7 +651,7 @@
         <v>98.11</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>29</v>
       </c>
@@ -662,7 +662,7 @@
         <v>86.15</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>29</v>
       </c>
@@ -673,7 +673,7 @@
         <v>99.19</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>29</v>
       </c>
@@ -684,7 +684,7 @@
         <v>114.41</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>29</v>
       </c>
@@ -695,7 +695,7 @@
         <v>97.56</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>30</v>
       </c>
@@ -706,7 +706,7 @@
         <v>84.25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>30</v>
       </c>
@@ -717,7 +717,7 @@
         <v>100.55</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>30</v>
       </c>
@@ -728,7 +728,7 @@
         <v>114.96</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>30</v>
       </c>
@@ -739,7 +739,7 @@
         <v>98.38</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>31</v>
       </c>
@@ -750,7 +750,7 @@
         <v>81.8</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -761,7 +761,7 @@
         <v>99.46</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -772,7 +772,7 @@
         <v>113.32</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>31</v>
       </c>
@@ -783,7 +783,7 @@
         <v>98.11</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>32</v>
       </c>
@@ -794,7 +794,7 @@
         <v>81.260000000000005</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>32</v>
       </c>
@@ -805,7 +805,7 @@
         <v>97.02</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>32</v>
       </c>
@@ -816,7 +816,7 @@
         <v>113.87</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>32</v>
       </c>
@@ -827,7 +827,7 @@
         <v>97.83</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>33</v>
       </c>
@@ -838,7 +838,7 @@
         <v>79.63</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>33</v>
       </c>
@@ -849,7 +849,7 @@
         <v>98.38</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>33</v>
       </c>
@@ -860,7 +860,7 @@
         <v>114.96</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>33</v>
       </c>
@@ -871,7 +871,7 @@
         <v>98.11</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>34</v>
       </c>
@@ -882,7 +882,7 @@
         <v>79.349999999999994</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>34</v>
       </c>
@@ -893,7 +893,7 @@
         <v>98.65</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>34</v>
       </c>
@@ -904,7 +904,7 @@
         <v>114.68</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>34</v>
       </c>
@@ -915,7 +915,7 @@
         <v>98.11</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>35</v>
       </c>
@@ -926,7 +926,7 @@
         <v>79.349999999999994</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>35</v>
       </c>
@@ -937,7 +937,7 @@
         <v>98.11</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>35</v>
       </c>
@@ -948,7 +948,7 @@
         <v>115.5</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>35</v>
       </c>
@@ -959,7 +959,7 @@
         <v>99.19</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>36</v>
       </c>
@@ -970,7 +970,7 @@
         <v>80.17</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>36</v>
       </c>
@@ -981,7 +981,7 @@
         <v>98.11</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>36</v>
       </c>
@@ -992,7 +992,7 @@
         <v>115.23</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>36</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>98.65</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>37</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>79.900000000000006</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>37</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>97.29</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>37</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>114.68</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>37</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>98.92</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>38</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>80.709999999999994</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>38</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>98.38</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>38</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>114.68</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>38</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>98.92</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>39</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>80.17</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>39</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>97.83</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>39</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>114.41</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>39</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>98.11</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>40</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>80.44</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>40</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>98.11</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>40</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>114.68</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>40</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>97.29</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>41</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>81.260000000000005</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>41</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>97.56</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>41</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>114.41</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>41</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>95.4</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>42</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>82.34</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>42</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>98.38</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>42</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>113.32</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>42</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>95.93</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>43</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>82.34</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>43</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>98.11</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>43</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>111.42</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>43</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>94.57</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>44</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>82.07</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>44</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>96.75</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>44</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>110.61</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>44</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>93.76</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>45</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>82.62</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>45</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>95.93</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>45</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>108.98</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>45</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>94.57</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>46</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>82.9</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>46</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>94.57</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>46</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>105.44</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>46</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>94.3</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>47</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>84.79</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>47</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>96.2</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>47</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>104.36</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>47</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>94.03</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>48</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>85.33</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>48</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>93.76</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>48</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>100.82</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>48</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>93.76</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>49</v>
       </c>
@@ -1553,12 +1553,12 @@
   <dimension ref="A1:C103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1569,1431 +1569,1431 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <f>(128.27-Imàgen!B2)*0.94</f>
-        <v>-1.7953999999999968</v>
+        <f>(128.27-Imàgen!B2)*0.00094</f>
+        <v>-1.7953999999999967E-3</v>
       </c>
       <c r="B2">
-        <f>(92.94-Imàgen!C2)*0.94</f>
-        <v>-3.8540000000000076</v>
+        <f>(92.94-Imàgen!C2)*0.00094</f>
+        <v>-3.854000000000008E-3</v>
       </c>
       <c r="C2">
-        <f>(49-Imàgen!A2)*1.4</f>
-        <v>36.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A2)*0.0014</f>
+        <v>3.6400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <f>(128.27-Imàgen!B3)*0.94</f>
-        <v>-1.278399999999986</v>
+        <f>(128.27-Imàgen!B3)*0.00094</f>
+        <v>-1.278399999999986E-3</v>
       </c>
       <c r="B3">
-        <f>(92.94-Imàgen!C3)*0.94</f>
-        <v>1.7859999999999918</v>
+        <f>(92.94-Imàgen!C3)*0.00094</f>
+        <v>1.785999999999992E-3</v>
       </c>
       <c r="C3">
-        <f>(49-Imàgen!A3)*1.4</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A3)*0.0014</f>
+        <v>3.4999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <f>(128.27-Imàgen!B4)*0.94</f>
-        <v>-6.3919999999999835</v>
+        <f>(128.27-Imàgen!B4)*0.00094</f>
+        <v>-6.3919999999999836E-3</v>
       </c>
       <c r="B4">
-        <f>(92.94-Imàgen!C4)*0.94</f>
-        <v>-4.8598000000000017</v>
+        <f>(92.94-Imàgen!C4)*0.00094</f>
+        <v>-4.8598000000000018E-3</v>
       </c>
       <c r="C4">
-        <f>(49-Imàgen!A4)*1.4</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A4)*0.0014</f>
+        <v>3.4999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <f>(128.27-Imàgen!B5)*0.94</f>
-        <v>-1.5321999999999956</v>
+        <f>(128.27-Imàgen!B5)*0.00094</f>
+        <v>-1.5321999999999957E-3</v>
       </c>
       <c r="B5">
-        <f>(92.94-Imàgen!C5)*0.94</f>
-        <v>-10.217800000000004</v>
+        <f>(92.94-Imàgen!C5)*0.00094</f>
+        <v>-1.0217800000000004E-2</v>
       </c>
       <c r="C5">
-        <f>(49-Imàgen!A5)*1.4</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A5)*0.0014</f>
+        <v>3.4999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <f>(128.27-Imàgen!B6)*0.94</f>
-        <v>1.0246000000000031</v>
+        <f>(128.27-Imàgen!B6)*0.00094</f>
+        <v>1.0246000000000031E-3</v>
       </c>
       <c r="B6">
-        <f>(92.94-Imàgen!C6)*0.94</f>
-        <v>-5.1135999999999973</v>
+        <f>(92.94-Imàgen!C6)*0.00094</f>
+        <v>-5.1135999999999977E-3</v>
       </c>
       <c r="C6">
-        <f>(49-Imàgen!A6)*1.4</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A6)*0.0014</f>
+        <v>3.4999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <f>(128.27-Imàgen!B7)*0.94</f>
-        <v>-2.3029999999999893</v>
+        <f>(128.27-Imàgen!B7)*0.00094</f>
+        <v>-2.3029999999999891E-3</v>
       </c>
       <c r="B7">
-        <f>(92.94-Imàgen!C7)*0.94</f>
-        <v>2.5473999999999939</v>
+        <f>(92.94-Imàgen!C7)*0.00094</f>
+        <v>2.5473999999999939E-3</v>
       </c>
       <c r="C7">
-        <f>(49-Imàgen!A7)*1.4</f>
-        <v>33.599999999999994</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A7)*0.0014</f>
+        <v>3.3599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
-        <f>(128.27-Imàgen!B8)*0.94</f>
-        <v>-8.4317999999999991</v>
+        <f>(128.27-Imàgen!B8)*0.00094</f>
+        <v>-8.431799999999998E-3</v>
       </c>
       <c r="B8">
-        <f>(92.94-Imàgen!C8)*0.94</f>
-        <v>-5.6212000000000035</v>
+        <f>(92.94-Imàgen!C8)*0.00094</f>
+        <v>-5.6212000000000033E-3</v>
       </c>
       <c r="C8">
-        <f>(49-Imàgen!A8)*1.4</f>
-        <v>33.599999999999994</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A8)*0.0014</f>
+        <v>3.3599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
-        <f>(128.27-Imàgen!B9)*0.94</f>
-        <v>-1.7859999999999785</v>
+        <f>(128.27-Imàgen!B9)*0.00094</f>
+        <v>-1.7859999999999786E-3</v>
       </c>
       <c r="B9">
-        <f>(92.94-Imàgen!C9)*0.94</f>
-        <v>-12.013200000000001</v>
+        <f>(92.94-Imàgen!C9)*0.00094</f>
+        <v>-1.20132E-2</v>
       </c>
       <c r="C9">
-        <f>(49-Imàgen!A9)*1.4</f>
-        <v>33.599999999999994</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A9)*0.0014</f>
+        <v>3.3599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
-        <f>(128.27-Imàgen!B10)*0.94</f>
-        <v>3.0644000000000045</v>
+        <f>(128.27-Imàgen!B10)*0.00094</f>
+        <v>3.0644000000000049E-3</v>
       </c>
       <c r="B10">
-        <f>(92.94-Imàgen!C10)*0.94</f>
-        <v>-5.3674000000000071</v>
+        <f>(92.94-Imàgen!C10)*0.00094</f>
+        <v>-5.3674000000000074E-3</v>
       </c>
       <c r="C10">
-        <f>(49-Imàgen!A10)*1.4</f>
-        <v>33.599999999999994</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A10)*0.0014</f>
+        <v>3.3599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
-        <f>(128.27-Imàgen!B11)*0.94</f>
-        <v>-1.5321999999999956</v>
+        <f>(128.27-Imàgen!B11)*0.00094</f>
+        <v>-1.5321999999999957E-3</v>
       </c>
       <c r="B11">
-        <f>(92.94-Imàgen!C11)*0.94</f>
-        <v>3.816400000000002</v>
+        <f>(92.94-Imàgen!C11)*0.00094</f>
+        <v>3.8164000000000019E-3</v>
       </c>
       <c r="C11">
-        <f>(49-Imàgen!A11)*1.4</f>
-        <v>32.199999999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A11)*0.0014</f>
+        <v>3.2199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
-        <f>(128.27-Imàgen!B12)*0.94</f>
-        <v>-10.734799999999987</v>
+        <f>(128.27-Imàgen!B12)*0.00094</f>
+        <v>-1.0734799999999987E-2</v>
       </c>
       <c r="B12">
-        <f>(92.94-Imàgen!C12)*0.94</f>
-        <v>-6.1287999999999956</v>
+        <f>(92.94-Imàgen!C12)*0.00094</f>
+        <v>-6.1287999999999959E-3</v>
       </c>
       <c r="C12">
-        <f>(49-Imàgen!A12)*1.4</f>
-        <v>32.199999999999996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A12)*0.0014</f>
+        <v>3.2199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
-        <f>(128.27-Imàgen!B13)*0.94</f>
-        <v>-1.5321999999999956</v>
+        <f>(128.27-Imàgen!B13)*0.00094</f>
+        <v>-1.5321999999999957E-3</v>
       </c>
       <c r="B13">
-        <f>(92.94-Imàgen!C13)*0.94</f>
-        <v>-12.520800000000007</v>
+        <f>(92.94-Imàgen!C13)*0.00094</f>
+        <v>-1.2520800000000007E-2</v>
       </c>
       <c r="C13">
-        <f>(49-Imàgen!A13)*1.4</f>
-        <v>32.199999999999996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A13)*0.0014</f>
+        <v>3.2199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
-        <f>(128.27-Imàgen!B14)*0.94</f>
-        <v>5.3674000000000071</v>
+        <f>(128.27-Imàgen!B14)*0.00094</f>
+        <v>5.3674000000000074E-3</v>
       </c>
       <c r="B14">
-        <f>(92.94-Imàgen!C14)*0.94</f>
-        <v>-5.3674000000000071</v>
+        <f>(92.94-Imàgen!C14)*0.00094</f>
+        <v>-5.3674000000000074E-3</v>
       </c>
       <c r="C14">
-        <f>(49-Imàgen!A14)*1.4</f>
-        <v>32.199999999999996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A14)*0.0014</f>
+        <v>3.2199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
-        <f>(128.27-Imàgen!B15)*0.94</f>
-        <v>-2.0491999999999795</v>
+        <f>(128.27-Imàgen!B15)*0.00094</f>
+        <v>-2.0491999999999798E-3</v>
       </c>
       <c r="B15">
-        <f>(92.94-Imàgen!C15)*0.94</f>
-        <v>4.5966000000000005</v>
+        <f>(92.94-Imàgen!C15)*0.00094</f>
+        <v>4.5966000000000002E-3</v>
       </c>
       <c r="C15">
-        <f>(49-Imàgen!A15)*1.4</f>
-        <v>30.799999999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A15)*0.0014</f>
+        <v>3.0800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
-        <f>(128.27-Imàgen!B16)*0.94</f>
-        <v>-12.774600000000003</v>
+        <f>(128.27-Imàgen!B16)*0.00094</f>
+        <v>-1.2774600000000002E-2</v>
       </c>
       <c r="B16">
-        <f>(92.94-Imàgen!C16)*0.94</f>
-        <v>-6.6364000000000019</v>
+        <f>(92.94-Imàgen!C16)*0.00094</f>
+        <v>-6.6364000000000024E-3</v>
       </c>
       <c r="C16">
-        <f>(49-Imàgen!A16)*1.4</f>
-        <v>30.799999999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A16)*0.0014</f>
+        <v>3.0800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
-        <f>(128.27-Imàgen!B17)*0.94</f>
-        <v>-1.5321999999999956</v>
+        <f>(128.27-Imàgen!B17)*0.00094</f>
+        <v>-1.5321999999999957E-3</v>
       </c>
       <c r="B17">
-        <f>(92.94-Imàgen!C17)*0.94</f>
-        <v>-14.814400000000004</v>
+        <f>(92.94-Imàgen!C17)*0.00094</f>
+        <v>-1.4814400000000004E-2</v>
       </c>
       <c r="C17">
-        <f>(49-Imàgen!A17)*1.4</f>
-        <v>30.799999999999997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A17)*0.0014</f>
+        <v>3.0800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
-        <f>(128.27-Imàgen!B18)*0.94</f>
-        <v>6.3826000000000054</v>
+        <f>(128.27-Imàgen!B18)*0.00094</f>
+        <v>6.3826000000000056E-3</v>
       </c>
       <c r="B18">
-        <f>(92.94-Imàgen!C18)*0.94</f>
-        <v>-4.5966000000000005</v>
+        <f>(92.94-Imàgen!C18)*0.00094</f>
+        <v>-4.5966000000000002E-3</v>
       </c>
       <c r="C18">
-        <f>(49-Imàgen!A18)*1.4</f>
-        <v>30.799999999999997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A18)*0.0014</f>
+        <v>3.0800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
-        <f>(128.27-Imàgen!B19)*0.94</f>
-        <v>-2.5567999999999986</v>
+        <f>(128.27-Imàgen!B19)*0.00094</f>
+        <v>-2.5567999999999988E-3</v>
       </c>
       <c r="B19">
-        <f>(92.94-Imàgen!C19)*0.94</f>
-        <v>5.6212000000000035</v>
+        <f>(92.94-Imàgen!C19)*0.00094</f>
+        <v>5.6212000000000033E-3</v>
       </c>
       <c r="C19">
-        <f>(49-Imàgen!A19)*1.4</f>
-        <v>29.4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A19)*0.0014</f>
+        <v>2.9399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
-        <f>(128.27-Imàgen!B20)*0.94</f>
-        <v>-14.306799999999997</v>
+        <f>(128.27-Imàgen!B20)*0.00094</f>
+        <v>-1.4306799999999998E-2</v>
       </c>
       <c r="B20">
-        <f>(92.94-Imàgen!C20)*0.94</f>
-        <v>-5.3674000000000071</v>
+        <f>(92.94-Imàgen!C20)*0.00094</f>
+        <v>-5.3674000000000074E-3</v>
       </c>
       <c r="C20">
-        <f>(49-Imàgen!A20)*1.4</f>
-        <v>29.4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A20)*0.0014</f>
+        <v>2.9399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
-        <f>(128.27-Imàgen!B21)*0.94</f>
-        <v>-4.8597999999999884</v>
+        <f>(128.27-Imàgen!B21)*0.00094</f>
+        <v>-4.8597999999999879E-3</v>
       </c>
       <c r="B21">
-        <f>(92.94-Imàgen!C21)*0.94</f>
-        <v>-18.903399999999998</v>
+        <f>(92.94-Imàgen!C21)*0.00094</f>
+        <v>-1.8903399999999997E-2</v>
       </c>
       <c r="C21">
-        <f>(49-Imàgen!A21)*1.4</f>
-        <v>29.4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A21)*0.0014</f>
+        <v>2.9399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
-        <f>(128.27-Imàgen!B22)*0.94</f>
-        <v>6.8996000000000031</v>
+        <f>(128.27-Imàgen!B22)*0.00094</f>
+        <v>6.8996000000000031E-3</v>
       </c>
       <c r="B22">
-        <f>(92.94-Imàgen!C22)*0.94</f>
-        <v>-4.8598000000000017</v>
+        <f>(92.94-Imàgen!C22)*0.00094</f>
+        <v>-4.8598000000000018E-3</v>
       </c>
       <c r="C22">
-        <f>(49-Imàgen!A22)*1.4</f>
-        <v>29.4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A22)*0.0014</f>
+        <v>2.9399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
-        <f>(128.27-Imàgen!B23)*0.94</f>
-        <v>-2.0491999999999795</v>
+        <f>(128.27-Imàgen!B23)*0.00094</f>
+        <v>-2.0491999999999798E-3</v>
       </c>
       <c r="B23">
-        <f>(92.94-Imàgen!C23)*0.94</f>
-        <v>6.3825999999999921</v>
+        <f>(92.94-Imàgen!C23)*0.00094</f>
+        <v>6.3825999999999926E-3</v>
       </c>
       <c r="C23">
-        <f>(49-Imàgen!A23)*1.4</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A23)*0.0014</f>
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
-        <f>(128.27-Imàgen!B24)*0.94</f>
-        <v>-14.560599999999981</v>
+        <f>(128.27-Imàgen!B24)*0.00094</f>
+        <v>-1.4560599999999981E-2</v>
       </c>
       <c r="B24">
-        <f>(92.94-Imàgen!C24)*0.94</f>
-        <v>-5.875</v>
+        <f>(92.94-Imàgen!C24)*0.00094</f>
+        <v>-5.875E-3</v>
       </c>
       <c r="C24">
-        <f>(49-Imàgen!A24)*1.4</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A24)*0.0014</f>
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
-        <f>(128.27-Imàgen!B25)*0.94</f>
-        <v>-5.875</v>
+        <f>(128.27-Imàgen!B25)*0.00094</f>
+        <v>-5.875E-3</v>
       </c>
       <c r="B25">
-        <f>(92.94-Imàgen!C25)*0.94</f>
-        <v>-20.181799999999999</v>
+        <f>(92.94-Imàgen!C25)*0.00094</f>
+        <v>-2.01818E-2</v>
       </c>
       <c r="C25">
-        <f>(49-Imàgen!A25)*1.4</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A25)*0.0014</f>
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
-        <f>(128.27-Imàgen!B26)*0.94</f>
-        <v>6.8996000000000031</v>
+        <f>(128.27-Imàgen!B26)*0.00094</f>
+        <v>6.8996000000000031E-3</v>
       </c>
       <c r="B26">
-        <f>(92.94-Imàgen!C26)*0.94</f>
-        <v>-4.342800000000004</v>
+        <f>(92.94-Imàgen!C26)*0.00094</f>
+        <v>-4.3428000000000043E-3</v>
       </c>
       <c r="C26">
-        <f>(49-Imàgen!A26)*1.4</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A26)*0.0014</f>
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
-        <f>(128.27-Imàgen!B27)*0.94</f>
-        <v>-2.8105999999999818</v>
+        <f>(128.27-Imàgen!B27)*0.00094</f>
+        <v>-2.8105999999999817E-3</v>
       </c>
       <c r="B27">
-        <f>(92.94-Imàgen!C27)*0.94</f>
-        <v>8.1685999999999979</v>
+        <f>(92.94-Imàgen!C27)*0.00094</f>
+        <v>8.1685999999999981E-3</v>
       </c>
       <c r="C27">
-        <f>(49-Imàgen!A27)*1.4</f>
-        <v>26.599999999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A27)*0.0014</f>
+        <v>2.6599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
-        <f>(128.27-Imàgen!B28)*0.94</f>
-        <v>-15.077599999999991</v>
+        <f>(128.27-Imàgen!B28)*0.00094</f>
+        <v>-1.5077599999999991E-2</v>
       </c>
       <c r="B28">
-        <f>(92.94-Imàgen!C28)*0.94</f>
-        <v>-7.1533999999999986</v>
+        <f>(92.94-Imàgen!C28)*0.00094</f>
+        <v>-7.153399999999999E-3</v>
       </c>
       <c r="C28">
-        <f>(49-Imàgen!A28)*1.4</f>
-        <v>26.599999999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A28)*0.0014</f>
+        <v>2.6599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
-        <f>(128.27-Imàgen!B29)*0.94</f>
-        <v>-7.1533999999999853</v>
+        <f>(128.27-Imàgen!B29)*0.00094</f>
+        <v>-7.153399999999986E-3</v>
       </c>
       <c r="B29">
-        <f>(92.94-Imàgen!C29)*0.94</f>
-        <v>-20.698799999999995</v>
+        <f>(92.94-Imàgen!C29)*0.00094</f>
+        <v>-2.0698799999999996E-2</v>
       </c>
       <c r="C29">
-        <f>(49-Imàgen!A29)*1.4</f>
-        <v>26.599999999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A29)*0.0014</f>
+        <v>2.6599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
-        <f>(128.27-Imàgen!B30)*0.94</f>
-        <v>7.1534000000000129</v>
+        <f>(128.27-Imàgen!B30)*0.00094</f>
+        <v>7.1534000000000129E-3</v>
       </c>
       <c r="B30">
-        <f>(92.94-Imàgen!C30)*0.94</f>
-        <v>-5.1135999999999973</v>
+        <f>(92.94-Imàgen!C30)*0.00094</f>
+        <v>-5.1135999999999977E-3</v>
       </c>
       <c r="C30">
-        <f>(49-Imàgen!A30)*1.4</f>
-        <v>26.599999999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A30)*0.0014</f>
+        <v>2.6599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
-        <f>(128.27-Imàgen!B31)*0.94</f>
-        <v>-3.3182000000000009</v>
+        <f>(128.27-Imàgen!B31)*0.00094</f>
+        <v>-3.3182000000000012E-3</v>
       </c>
       <c r="B31">
-        <f>(92.94-Imàgen!C31)*0.94</f>
-        <v>10.4716</v>
+        <f>(92.94-Imàgen!C31)*0.00094</f>
+        <v>1.0471600000000001E-2</v>
       </c>
       <c r="C31">
-        <f>(49-Imàgen!A31)*1.4</f>
-        <v>25.2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A31)*0.0014</f>
+        <v>2.52E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
-        <f>(128.27-Imàgen!B32)*0.94</f>
-        <v>-15.585199999999984</v>
+        <f>(128.27-Imàgen!B32)*0.00094</f>
+        <v>-1.5585199999999985E-2</v>
       </c>
       <c r="B32">
-        <f>(92.94-Imàgen!C32)*0.94</f>
-        <v>-6.1287999999999956</v>
+        <f>(92.94-Imàgen!C32)*0.00094</f>
+        <v>-6.1287999999999959E-3</v>
       </c>
       <c r="C32">
-        <f>(49-Imàgen!A32)*1.4</f>
-        <v>25.2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A32)*0.0014</f>
+        <v>2.52E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
-        <f>(128.27-Imàgen!B33)*0.94</f>
-        <v>-6.1287999999999823</v>
+        <f>(128.27-Imàgen!B33)*0.00094</f>
+        <v>-6.1287999999999829E-3</v>
       </c>
       <c r="B33">
-        <f>(92.94-Imàgen!C33)*0.94</f>
-        <v>-19.157199999999996</v>
+        <f>(92.94-Imàgen!C33)*0.00094</f>
+        <v>-1.9157199999999996E-2</v>
       </c>
       <c r="C33">
-        <f>(49-Imàgen!A33)*1.4</f>
-        <v>25.2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A33)*0.0014</f>
+        <v>2.52E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
-        <f>(128.27-Imàgen!B34)*0.94</f>
-        <v>7.4072000000000084</v>
+        <f>(128.27-Imàgen!B34)*0.00094</f>
+        <v>7.4072000000000087E-3</v>
       </c>
       <c r="B34">
-        <f>(92.94-Imàgen!C34)*0.94</f>
-        <v>-4.8598000000000017</v>
+        <f>(92.94-Imàgen!C34)*0.00094</f>
+        <v>-4.8598000000000018E-3</v>
       </c>
       <c r="C34">
-        <f>(49-Imàgen!A34)*1.4</f>
-        <v>25.2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A34)*0.0014</f>
+        <v>2.52E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
-        <f>(128.27-Imàgen!B35)*0.94</f>
-        <v>-3.8351999999999848</v>
+        <f>(128.27-Imàgen!B35)*0.00094</f>
+        <v>-3.8351999999999848E-3</v>
       </c>
       <c r="B35">
-        <f>(92.94-Imàgen!C35)*0.94</f>
-        <v>10.979199999999992</v>
+        <f>(92.94-Imàgen!C35)*0.00094</f>
+        <v>1.0979199999999993E-2</v>
       </c>
       <c r="C35">
-        <f>(49-Imàgen!A35)*1.4</f>
-        <v>23.799999999999997</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A35)*0.0014</f>
+        <v>2.3799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
-        <f>(128.27-Imàgen!B36)*0.94</f>
-        <v>-16.092799999999976</v>
+        <f>(128.27-Imàgen!B36)*0.00094</f>
+        <v>-1.6092799999999977E-2</v>
       </c>
       <c r="B36">
-        <f>(92.94-Imàgen!C36)*0.94</f>
-        <v>-3.8351999999999982</v>
+        <f>(92.94-Imàgen!C36)*0.00094</f>
+        <v>-3.8351999999999982E-3</v>
       </c>
       <c r="C36">
-        <f>(49-Imàgen!A36)*1.4</f>
-        <v>23.799999999999997</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A36)*0.0014</f>
+        <v>2.3799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
-        <f>(128.27-Imàgen!B37)*0.94</f>
-        <v>-4.0983999999999856</v>
+        <f>(128.27-Imàgen!B37)*0.00094</f>
+        <v>-4.0983999999999856E-3</v>
       </c>
       <c r="B37">
-        <f>(92.94-Imàgen!C37)*0.94</f>
-        <v>-19.674200000000006</v>
+        <f>(92.94-Imàgen!C37)*0.00094</f>
+        <v>-1.9674200000000006E-2</v>
       </c>
       <c r="C37">
-        <f>(49-Imàgen!A37)*1.4</f>
-        <v>23.799999999999997</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A37)*0.0014</f>
+        <v>2.3799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
-        <f>(128.27-Imàgen!B38)*0.94</f>
-        <v>7.6610000000000049</v>
+        <f>(128.27-Imàgen!B38)*0.00094</f>
+        <v>7.6610000000000055E-3</v>
       </c>
       <c r="B38">
-        <f>(92.94-Imàgen!C38)*0.94</f>
-        <v>-4.5966000000000005</v>
+        <f>(92.94-Imàgen!C38)*0.00094</f>
+        <v>-4.5966000000000002E-3</v>
       </c>
       <c r="C38">
-        <f>(49-Imàgen!A38)*1.4</f>
-        <v>23.799999999999997</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A38)*0.0014</f>
+        <v>2.3799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
-        <f>(128.27-Imàgen!B39)*0.94</f>
-        <v>-4.8597999999999884</v>
+        <f>(128.27-Imàgen!B39)*0.00094</f>
+        <v>-4.8597999999999879E-3</v>
       </c>
       <c r="B39">
-        <f>(92.94-Imàgen!C39)*0.94</f>
-        <v>12.511400000000002</v>
+        <f>(92.94-Imàgen!C39)*0.00094</f>
+        <v>1.2511400000000002E-2</v>
       </c>
       <c r="C39">
-        <f>(49-Imàgen!A39)*1.4</f>
-        <v>22.4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A39)*0.0014</f>
+        <v>2.24E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
-        <f>(128.27-Imàgen!B40)*0.94</f>
-        <v>-17.117399999999979</v>
+        <f>(128.27-Imàgen!B40)*0.00094</f>
+        <v>-1.7117399999999981E-2</v>
       </c>
       <c r="B40">
-        <f>(92.94-Imàgen!C40)*0.94</f>
-        <v>-5.1135999999999973</v>
+        <f>(92.94-Imàgen!C40)*0.00094</f>
+        <v>-5.1135999999999977E-3</v>
       </c>
       <c r="C40">
-        <f>(49-Imàgen!A40)*1.4</f>
-        <v>22.4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A40)*0.0014</f>
+        <v>2.24E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
-        <f>(128.27-Imàgen!B41)*0.94</f>
-        <v>-2.56619999999999</v>
+        <f>(128.27-Imàgen!B41)*0.00094</f>
+        <v>-2.5661999999999903E-3</v>
       </c>
       <c r="B41">
-        <f>(92.94-Imàgen!C41)*0.94</f>
-        <v>-20.698799999999995</v>
+        <f>(92.94-Imàgen!C41)*0.00094</f>
+        <v>-2.0698799999999996E-2</v>
       </c>
       <c r="C41">
-        <f>(49-Imàgen!A41)*1.4</f>
-        <v>22.4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A41)*0.0014</f>
+        <v>2.24E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
-        <f>(128.27-Imàgen!B42)*0.94</f>
-        <v>13.028400000000012</v>
+        <f>(128.27-Imàgen!B42)*0.00094</f>
+        <v>1.3028400000000013E-2</v>
       </c>
       <c r="B42">
-        <f>(92.94-Imàgen!C42)*0.94</f>
-        <v>-4.8598000000000017</v>
+        <f>(92.94-Imàgen!C42)*0.00094</f>
+        <v>-4.8598000000000018E-3</v>
       </c>
       <c r="C42">
-        <f>(49-Imàgen!A42)*1.4</f>
-        <v>22.4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A42)*0.0014</f>
+        <v>2.24E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
-        <f>(128.27-Imàgen!B43)*0.94</f>
-        <v>-4.7657999999999934</v>
+        <f>(128.27-Imàgen!B43)*0.00094</f>
+        <v>-4.7657999999999937E-3</v>
       </c>
       <c r="B43">
-        <f>(92.94-Imàgen!C43)*0.94</f>
-        <v>12.774600000000003</v>
+        <f>(92.94-Imàgen!C43)*0.00094</f>
+        <v>1.2774600000000002E-2</v>
       </c>
       <c r="C43">
-        <f>(49-Imàgen!A43)*1.4</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A43)*0.0014</f>
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
-        <f>(128.27-Imàgen!B44)*0.94</f>
-        <v>-17.371199999999991</v>
+        <f>(128.27-Imàgen!B44)*0.00094</f>
+        <v>-1.7371199999999989E-2</v>
       </c>
       <c r="B44">
-        <f>(92.94-Imàgen!C44)*0.94</f>
-        <v>-5.3674000000000071</v>
+        <f>(92.94-Imàgen!C44)*0.00094</f>
+        <v>-5.3674000000000074E-3</v>
       </c>
       <c r="C44">
-        <f>(49-Imàgen!A44)*1.4</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A44)*0.0014</f>
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
-        <f>(128.27-Imàgen!B45)*0.94</f>
-        <v>-4.3427999999999773</v>
+        <f>(128.27-Imàgen!B45)*0.00094</f>
+        <v>-4.3427999999999774E-3</v>
       </c>
       <c r="B45">
-        <f>(92.94-Imàgen!C45)*0.94</f>
-        <v>-20.435600000000008</v>
+        <f>(92.94-Imàgen!C45)*0.00094</f>
+        <v>-2.0435600000000009E-2</v>
       </c>
       <c r="C45">
-        <f>(49-Imàgen!A45)*1.4</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A45)*0.0014</f>
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
-        <f>(128.27-Imàgen!B46)*0.94</f>
-        <v>14.306800000000012</v>
+        <f>(128.27-Imàgen!B46)*0.00094</f>
+        <v>1.4306800000000012E-2</v>
       </c>
       <c r="B46">
-        <f>(92.94-Imàgen!C46)*0.94</f>
-        <v>-4.8598000000000017</v>
+        <f>(92.94-Imàgen!C46)*0.00094</f>
+        <v>-4.8598000000000018E-3</v>
       </c>
       <c r="C46">
-        <f>(49-Imàgen!A46)*1.4</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A46)*0.0014</f>
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
-        <f>(128.27-Imàgen!B47)*0.94</f>
-        <v>-4.5965999999999871</v>
+        <f>(128.27-Imàgen!B47)*0.00094</f>
+        <v>-4.5965999999999872E-3</v>
       </c>
       <c r="B47">
-        <f>(92.94-Imàgen!C47)*0.94</f>
-        <v>12.774600000000003</v>
+        <f>(92.94-Imàgen!C47)*0.00094</f>
+        <v>1.2774600000000002E-2</v>
       </c>
       <c r="C47">
-        <f>(49-Imàgen!A47)*1.4</f>
-        <v>19.599999999999998</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A47)*0.0014</f>
+        <v>1.9599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
-        <f>(128.27-Imàgen!B48)*0.94</f>
-        <v>-17.625</v>
+        <f>(128.27-Imàgen!B48)*0.00094</f>
+        <v>-1.7624999999999998E-2</v>
       </c>
       <c r="B48">
-        <f>(92.94-Imàgen!C48)*0.94</f>
-        <v>-4.8598000000000017</v>
+        <f>(92.94-Imàgen!C48)*0.00094</f>
+        <v>-4.8598000000000018E-3</v>
       </c>
       <c r="C48">
-        <f>(49-Imàgen!A48)*1.4</f>
-        <v>19.599999999999998</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A48)*0.0014</f>
+        <v>1.9599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
-        <f>(128.27-Imàgen!B49)*0.94</f>
-        <v>-5.3673999999999804</v>
+        <f>(128.27-Imàgen!B49)*0.00094</f>
+        <v>-5.3673999999999805E-3</v>
       </c>
       <c r="B49">
-        <f>(92.94-Imàgen!C49)*0.94</f>
-        <v>-21.206400000000002</v>
+        <f>(92.94-Imàgen!C49)*0.00094</f>
+        <v>-2.12064E-2</v>
       </c>
       <c r="C49">
-        <f>(49-Imàgen!A49)*1.4</f>
-        <v>19.599999999999998</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A49)*0.0014</f>
+        <v>1.9599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
-        <f>(128.27-Imàgen!B50)*0.94</f>
-        <v>15.32200000000001</v>
+        <f>(128.27-Imàgen!B50)*0.00094</f>
+        <v>1.5322000000000011E-2</v>
       </c>
       <c r="B50">
-        <f>(92.94-Imàgen!C50)*0.94</f>
-        <v>-5.875</v>
+        <f>(92.94-Imàgen!C50)*0.00094</f>
+        <v>-5.875E-3</v>
       </c>
       <c r="C50">
-        <f>(49-Imàgen!A50)*1.4</f>
-        <v>19.599999999999998</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A50)*0.0014</f>
+        <v>1.9599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
-        <f>(128.27-Imàgen!B51)*0.94</f>
-        <v>-4.0983999999999856</v>
+        <f>(128.27-Imàgen!B51)*0.00094</f>
+        <v>-4.0983999999999856E-3</v>
       </c>
       <c r="B51">
-        <f>(92.94-Imàgen!C51)*0.94</f>
-        <v>12.003799999999995</v>
+        <f>(92.94-Imàgen!C51)*0.00094</f>
+        <v>1.2003799999999997E-2</v>
       </c>
       <c r="C51">
-        <f>(49-Imàgen!A51)*1.4</f>
-        <v>18.2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A51)*0.0014</f>
+        <v>1.8200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
-        <f>(128.27-Imàgen!B52)*0.94</f>
-        <v>-18.649600000000003</v>
+        <f>(128.27-Imàgen!B52)*0.00094</f>
+        <v>-1.8649600000000002E-2</v>
       </c>
       <c r="B52">
-        <f>(92.94-Imàgen!C52)*0.94</f>
-        <v>-4.8598000000000017</v>
+        <f>(92.94-Imàgen!C52)*0.00094</f>
+        <v>-4.8598000000000018E-3</v>
       </c>
       <c r="C52">
-        <f>(49-Imàgen!A52)*1.4</f>
-        <v>18.2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A52)*0.0014</f>
+        <v>1.8200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
-        <f>(128.27-Imàgen!B53)*0.94</f>
-        <v>-2.0491999999999795</v>
+        <f>(128.27-Imàgen!B53)*0.00094</f>
+        <v>-2.0491999999999798E-3</v>
       </c>
       <c r="B53">
-        <f>(92.94-Imàgen!C53)*0.94</f>
-        <v>-20.952600000000004</v>
+        <f>(92.94-Imàgen!C53)*0.00094</f>
+        <v>-2.0952600000000005E-2</v>
       </c>
       <c r="C53">
-        <f>(49-Imàgen!A53)*1.4</f>
-        <v>18.2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A53)*0.0014</f>
+        <v>1.8200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
-        <f>(128.27-Imàgen!B54)*0.94</f>
-        <v>15.32200000000001</v>
+        <f>(128.27-Imàgen!B54)*0.00094</f>
+        <v>1.5322000000000011E-2</v>
       </c>
       <c r="B54">
-        <f>(92.94-Imàgen!C54)*0.94</f>
-        <v>-5.3674000000000071</v>
+        <f>(92.94-Imàgen!C54)*0.00094</f>
+        <v>-5.3674000000000074E-3</v>
       </c>
       <c r="C54">
-        <f>(49-Imàgen!A54)*1.4</f>
-        <v>18.2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A54)*0.0014</f>
+        <v>1.8200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
-        <f>(128.27-Imàgen!B55)*0.94</f>
-        <v>-4.3427999999999773</v>
+        <f>(128.27-Imàgen!B55)*0.00094</f>
+        <v>-4.3427999999999774E-3</v>
       </c>
       <c r="B55">
-        <f>(92.94-Imàgen!C55)*0.94</f>
-        <v>12.257599999999991</v>
+        <f>(92.94-Imàgen!C55)*0.00094</f>
+        <v>1.2257599999999992E-2</v>
       </c>
       <c r="C55">
-        <f>(49-Imàgen!A55)*1.4</f>
-        <v>16.799999999999997</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A55)*0.0014</f>
+        <v>1.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
-        <f>(128.27-Imàgen!B56)*0.94</f>
-        <v>-19.157199999999996</v>
+        <f>(128.27-Imàgen!B56)*0.00094</f>
+        <v>-1.9157199999999996E-2</v>
       </c>
       <c r="B56">
-        <f>(92.94-Imàgen!C56)*0.94</f>
-        <v>-4.0890000000000075</v>
+        <f>(92.94-Imàgen!C56)*0.00094</f>
+        <v>-4.0890000000000076E-3</v>
       </c>
       <c r="C56">
-        <f>(49-Imàgen!A56)*1.4</f>
-        <v>16.799999999999997</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A56)*0.0014</f>
+        <v>1.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
-        <f>(128.27-Imàgen!B57)*0.94</f>
-        <v>-2.3029999999999893</v>
+        <f>(128.27-Imàgen!B57)*0.00094</f>
+        <v>-2.3029999999999891E-3</v>
       </c>
       <c r="B57">
-        <f>(92.94-Imàgen!C57)*0.94</f>
-        <v>-20.435600000000008</v>
+        <f>(92.94-Imàgen!C57)*0.00094</f>
+        <v>-2.0435600000000009E-2</v>
       </c>
       <c r="C57">
-        <f>(49-Imàgen!A57)*1.4</f>
-        <v>16.799999999999997</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A57)*0.0014</f>
+        <v>1.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
-        <f>(128.27-Imàgen!B58)*0.94</f>
-        <v>14.053000000000015</v>
+        <f>(128.27-Imàgen!B58)*0.00094</f>
+        <v>1.4053000000000015E-2</v>
       </c>
       <c r="B58">
-        <f>(92.94-Imàgen!C58)*0.94</f>
-        <v>-5.6212000000000035</v>
+        <f>(92.94-Imàgen!C58)*0.00094</f>
+        <v>-5.6212000000000033E-3</v>
       </c>
       <c r="C58">
-        <f>(49-Imàgen!A58)*1.4</f>
-        <v>16.799999999999997</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A58)*0.0014</f>
+        <v>1.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
-        <f>(128.27-Imàgen!B59)*0.94</f>
-        <v>-3.0643999999999911</v>
+        <f>(128.27-Imàgen!B59)*0.00094</f>
+        <v>-3.0643999999999914E-3</v>
       </c>
       <c r="B59">
-        <f>(92.94-Imàgen!C59)*0.94</f>
-        <v>11.496200000000004</v>
+        <f>(92.94-Imàgen!C59)*0.00094</f>
+        <v>1.1496200000000003E-2</v>
       </c>
       <c r="C59">
-        <f>(49-Imàgen!A59)*1.4</f>
-        <v>15.399999999999999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A59)*0.0014</f>
+        <v>1.54E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
-        <f>(128.27-Imàgen!B60)*0.94</f>
-        <v>-18.649600000000003</v>
+        <f>(128.27-Imàgen!B60)*0.00094</f>
+        <v>-1.8649600000000002E-2</v>
       </c>
       <c r="B60">
-        <f>(92.94-Imàgen!C60)*0.94</f>
-        <v>-5.1135999999999973</v>
+        <f>(92.94-Imàgen!C60)*0.00094</f>
+        <v>-5.1135999999999977E-3</v>
       </c>
       <c r="C60">
-        <f>(49-Imàgen!A60)*1.4</f>
-        <v>15.399999999999999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A60)*0.0014</f>
+        <v>1.54E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
-        <f>(128.27-Imàgen!B61)*0.94</f>
-        <v>-2.56619999999999</v>
+        <f>(128.27-Imàgen!B61)*0.00094</f>
+        <v>-2.5661999999999903E-3</v>
       </c>
       <c r="B61">
-        <f>(92.94-Imàgen!C61)*0.94</f>
-        <v>-20.435600000000008</v>
+        <f>(92.94-Imàgen!C61)*0.00094</f>
+        <v>-2.0435600000000009E-2</v>
       </c>
       <c r="C61">
-        <f>(49-Imàgen!A61)*1.4</f>
-        <v>15.399999999999999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A61)*0.0014</f>
+        <v>1.54E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
-        <f>(128.27-Imàgen!B62)*0.94</f>
-        <v>12.511400000000014</v>
+        <f>(128.27-Imàgen!B62)*0.00094</f>
+        <v>1.2511400000000015E-2</v>
       </c>
       <c r="B62">
-        <f>(92.94-Imàgen!C62)*0.94</f>
-        <v>-5.6212000000000035</v>
+        <f>(92.94-Imàgen!C62)*0.00094</f>
+        <v>-5.6212000000000033E-3</v>
       </c>
       <c r="C62">
-        <f>(49-Imàgen!A62)*1.4</f>
-        <v>15.399999999999999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A62)*0.0014</f>
+        <v>1.54E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
-        <f>(128.27-Imàgen!B63)*0.94</f>
-        <v>-3.0643999999999911</v>
+        <f>(128.27-Imàgen!B63)*0.00094</f>
+        <v>-3.0643999999999914E-3</v>
       </c>
       <c r="B63">
-        <f>(92.94-Imàgen!C63)*0.94</f>
-        <v>12.003799999999995</v>
+        <f>(92.94-Imàgen!C63)*0.00094</f>
+        <v>1.2003799999999997E-2</v>
       </c>
       <c r="C63">
-        <f>(49-Imàgen!A63)*1.4</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A63)*0.0014</f>
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
-        <f>(128.27-Imàgen!B64)*0.94</f>
-        <v>-19.157199999999996</v>
+        <f>(128.27-Imàgen!B64)*0.00094</f>
+        <v>-1.9157199999999996E-2</v>
       </c>
       <c r="B64">
-        <f>(92.94-Imàgen!C64)*0.94</f>
-        <v>-4.5966000000000005</v>
+        <f>(92.94-Imàgen!C64)*0.00094</f>
+        <v>-4.5966000000000002E-3</v>
       </c>
       <c r="C64">
-        <f>(49-Imàgen!A64)*1.4</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A64)*0.0014</f>
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
-        <f>(128.27-Imàgen!B65)*0.94</f>
-        <v>-2.56619999999999</v>
+        <f>(128.27-Imàgen!B65)*0.00094</f>
+        <v>-2.5661999999999903E-3</v>
       </c>
       <c r="B65">
-        <f>(92.94-Imàgen!C65)*0.94</f>
-        <v>-20.181799999999999</v>
+        <f>(92.94-Imàgen!C65)*0.00094</f>
+        <v>-2.01818E-2</v>
       </c>
       <c r="C65">
-        <f>(49-Imàgen!A65)*1.4</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A65)*0.0014</f>
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
-        <f>(128.27-Imàgen!B66)*0.94</f>
-        <v>10.725400000000009</v>
+        <f>(128.27-Imàgen!B66)*0.00094</f>
+        <v>1.072540000000001E-2</v>
       </c>
       <c r="B66">
-        <f>(92.94-Imàgen!C66)*0.94</f>
-        <v>-4.8598000000000017</v>
+        <f>(92.94-Imàgen!C66)*0.00094</f>
+        <v>-4.8598000000000018E-3</v>
       </c>
       <c r="C66">
-        <f>(49-Imàgen!A66)*1.4</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A66)*0.0014</f>
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
-        <f>(128.27-Imàgen!B67)*0.94</f>
-        <v>-2.3029999999999893</v>
+        <f>(128.27-Imàgen!B67)*0.00094</f>
+        <v>-2.3029999999999891E-3</v>
       </c>
       <c r="B67">
-        <f>(92.94-Imàgen!C67)*0.94</f>
-        <v>11.75</v>
+        <f>(92.94-Imàgen!C67)*0.00094</f>
+        <v>1.175E-2</v>
       </c>
       <c r="C67">
-        <f>(49-Imàgen!A67)*1.4</f>
-        <v>12.6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A67)*0.0014</f>
+        <v>1.26E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
-        <f>(128.27-Imàgen!B68)*0.94</f>
-        <v>-18.903399999999984</v>
+        <f>(128.27-Imàgen!B68)*0.00094</f>
+        <v>-1.8903399999999987E-2</v>
       </c>
       <c r="B68">
-        <f>(92.94-Imàgen!C68)*0.94</f>
-        <v>-4.8598000000000017</v>
+        <f>(92.94-Imàgen!C68)*0.00094</f>
+        <v>-4.8598000000000018E-3</v>
       </c>
       <c r="C68">
-        <f>(49-Imàgen!A68)*1.4</f>
-        <v>12.6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A68)*0.0014</f>
+        <v>1.26E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
-        <f>(128.27-Imàgen!B69)*0.94</f>
-        <v>-2.0491999999999795</v>
+        <f>(128.27-Imàgen!B69)*0.00094</f>
+        <v>-2.0491999999999798E-3</v>
       </c>
       <c r="B69">
-        <f>(92.94-Imàgen!C69)*0.94</f>
-        <v>-20.435600000000008</v>
+        <f>(92.94-Imàgen!C69)*0.00094</f>
+        <v>-2.0435600000000009E-2</v>
       </c>
       <c r="C69">
-        <f>(49-Imàgen!A69)*1.4</f>
-        <v>12.6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A69)*0.0014</f>
+        <v>1.26E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
-        <f>(128.27-Imàgen!B70)*0.94</f>
-        <v>9.710200000000011</v>
+        <f>(128.27-Imàgen!B70)*0.00094</f>
+        <v>9.7102000000000108E-3</v>
       </c>
       <c r="B70">
-        <f>(92.94-Imàgen!C70)*0.94</f>
-        <v>-4.0890000000000075</v>
+        <f>(92.94-Imàgen!C70)*0.00094</f>
+        <v>-4.0890000000000076E-3</v>
       </c>
       <c r="C70">
-        <f>(49-Imàgen!A70)*1.4</f>
-        <v>12.6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A70)*0.0014</f>
+        <v>1.26E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
-        <f>(128.27-Imàgen!B71)*0.94</f>
-        <v>-2.56619999999999</v>
+        <f>(128.27-Imàgen!B71)*0.00094</f>
+        <v>-2.5661999999999903E-3</v>
       </c>
       <c r="B71">
-        <f>(92.94-Imàgen!C71)*0.94</f>
-        <v>10.979199999999992</v>
+        <f>(92.94-Imàgen!C71)*0.00094</f>
+        <v>1.0979199999999993E-2</v>
       </c>
       <c r="C71">
-        <f>(49-Imàgen!A71)*1.4</f>
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A71)*0.0014</f>
+        <v>1.12E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
-        <f>(128.27-Imàgen!B72)*0.94</f>
-        <v>-18.141999999999982</v>
+        <f>(128.27-Imàgen!B72)*0.00094</f>
+        <v>-1.8141999999999985E-2</v>
       </c>
       <c r="B72">
-        <f>(92.94-Imàgen!C72)*0.94</f>
-        <v>-4.342800000000004</v>
+        <f>(92.94-Imàgen!C72)*0.00094</f>
+        <v>-4.3428000000000043E-3</v>
       </c>
       <c r="C72">
-        <f>(49-Imàgen!A72)*1.4</f>
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A72)*0.0014</f>
+        <v>1.12E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
-        <f>(128.27-Imàgen!B73)*0.94</f>
-        <v>-2.3029999999999893</v>
+        <f>(128.27-Imàgen!B73)*0.00094</f>
+        <v>-2.3029999999999891E-3</v>
       </c>
       <c r="B73">
-        <f>(92.94-Imàgen!C73)*0.94</f>
-        <v>-20.181799999999999</v>
+        <f>(92.94-Imàgen!C73)*0.00094</f>
+        <v>-2.01818E-2</v>
       </c>
       <c r="C73">
-        <f>(49-Imàgen!A73)*1.4</f>
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A73)*0.0014</f>
+        <v>1.12E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
-        <f>(128.27-Imàgen!B74)*0.94</f>
-        <v>9.710200000000011</v>
+        <f>(128.27-Imàgen!B74)*0.00094</f>
+        <v>9.7102000000000108E-3</v>
       </c>
       <c r="B74">
-        <f>(92.94-Imàgen!C74)*0.94</f>
-        <v>-2.3124000000000073</v>
+        <f>(92.94-Imàgen!C74)*0.00094</f>
+        <v>-2.3124000000000074E-3</v>
       </c>
       <c r="C74">
-        <f>(49-Imàgen!A74)*1.4</f>
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A74)*0.0014</f>
+        <v>1.12E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
-        <f>(128.27-Imàgen!B75)*0.94</f>
-        <v>-3.0643999999999911</v>
+        <f>(128.27-Imàgen!B75)*0.00094</f>
+        <v>-3.0643999999999914E-3</v>
       </c>
       <c r="B75">
-        <f>(92.94-Imàgen!C75)*0.94</f>
-        <v>9.9639999999999933</v>
+        <f>(92.94-Imàgen!C75)*0.00094</f>
+        <v>9.9639999999999937E-3</v>
       </c>
       <c r="C75">
-        <f>(49-Imàgen!A75)*1.4</f>
-        <v>9.7999999999999989</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A75)*0.0014</f>
+        <v>9.7999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
-        <f>(128.27-Imàgen!B76)*0.94</f>
-        <v>-17.888200000000001</v>
+        <f>(128.27-Imàgen!B76)*0.00094</f>
+        <v>-1.78882E-2</v>
       </c>
       <c r="B76">
-        <f>(92.94-Imàgen!C76)*0.94</f>
-        <v>-5.1135999999999973</v>
+        <f>(92.94-Imàgen!C76)*0.00094</f>
+        <v>-5.1135999999999977E-3</v>
       </c>
       <c r="C76">
-        <f>(49-Imàgen!A76)*1.4</f>
-        <v>9.7999999999999989</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A76)*0.0014</f>
+        <v>9.7999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
-        <f>(128.27-Imàgen!B77)*0.94</f>
-        <v>-2.3029999999999893</v>
+        <f>(128.27-Imàgen!B77)*0.00094</f>
+        <v>-2.3029999999999891E-3</v>
       </c>
       <c r="B77">
-        <f>(92.94-Imàgen!C77)*0.94</f>
-        <v>-19.157199999999996</v>
+        <f>(92.94-Imàgen!C77)*0.00094</f>
+        <v>-1.9157199999999996E-2</v>
       </c>
       <c r="C77">
-        <f>(49-Imàgen!A77)*1.4</f>
-        <v>9.7999999999999989</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A77)*0.0014</f>
+        <v>9.7999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
-        <f>(128.27-Imàgen!B78)*0.94</f>
-        <v>9.710200000000011</v>
+        <f>(128.27-Imàgen!B78)*0.00094</f>
+        <v>9.7102000000000108E-3</v>
       </c>
       <c r="B78">
-        <f>(92.94-Imàgen!C78)*0.94</f>
-        <v>-2.8106000000000084</v>
+        <f>(92.94-Imàgen!C78)*0.00094</f>
+        <v>-2.8106000000000086E-3</v>
       </c>
       <c r="C78">
-        <f>(49-Imàgen!A78)*1.4</f>
-        <v>9.7999999999999989</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A78)*0.0014</f>
+        <v>9.7999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
-        <f>(128.27-Imàgen!B79)*0.94</f>
-        <v>-2.3029999999999893</v>
+        <f>(128.27-Imàgen!B79)*0.00094</f>
+        <v>-2.3029999999999891E-3</v>
       </c>
       <c r="B79">
-        <f>(92.94-Imàgen!C79)*0.94</f>
-        <v>9.9639999999999933</v>
+        <f>(92.94-Imàgen!C79)*0.00094</f>
+        <v>9.9639999999999937E-3</v>
       </c>
       <c r="C79">
-        <f>(49-Imàgen!A79)*1.4</f>
-        <v>8.3999999999999986</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A79)*0.0014</f>
+        <v>8.3999999999999995E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
-        <f>(128.27-Imàgen!B80)*0.94</f>
-        <v>-17.625</v>
+        <f>(128.27-Imàgen!B80)*0.00094</f>
+        <v>-1.7624999999999998E-2</v>
       </c>
       <c r="B80">
-        <f>(92.94-Imàgen!C80)*0.94</f>
-        <v>-4.8598000000000017</v>
+        <f>(92.94-Imàgen!C80)*0.00094</f>
+        <v>-4.8598000000000018E-3</v>
       </c>
       <c r="C80">
-        <f>(49-Imàgen!A80)*1.4</f>
-        <v>8.3999999999999986</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A80)*0.0014</f>
+        <v>8.3999999999999995E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
-        <f>(128.27-Imàgen!B81)*0.94</f>
-        <v>-0.77079999999999349</v>
+        <f>(128.27-Imàgen!B81)*0.00094</f>
+        <v>-7.7079999999999358E-4</v>
       </c>
       <c r="B81">
-        <f>(92.94-Imàgen!C81)*0.94</f>
-        <v>-17.371200000000002</v>
+        <f>(92.94-Imàgen!C81)*0.00094</f>
+        <v>-1.7371200000000003E-2</v>
       </c>
       <c r="C81">
-        <f>(49-Imàgen!A81)*1.4</f>
-        <v>8.3999999999999986</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A81)*0.0014</f>
+        <v>8.3999999999999995E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
-        <f>(128.27-Imàgen!B82)*0.94</f>
-        <v>8.9394000000000045</v>
+        <f>(128.27-Imàgen!B82)*0.00094</f>
+        <v>8.9394000000000053E-3</v>
       </c>
       <c r="B82">
-        <f>(92.94-Imàgen!C82)*0.94</f>
-        <v>-1.5321999999999956</v>
+        <f>(92.94-Imàgen!C82)*0.00094</f>
+        <v>-1.5321999999999957E-3</v>
       </c>
       <c r="C82">
-        <f>(49-Imàgen!A82)*1.4</f>
-        <v>8.3999999999999986</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A82)*0.0014</f>
+        <v>8.3999999999999995E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
-        <f>(128.27-Imàgen!B83)*0.94</f>
-        <v>-2.0491999999999795</v>
+        <f>(128.27-Imàgen!B83)*0.00094</f>
+        <v>-2.0491999999999798E-3</v>
       </c>
       <c r="B83">
-        <f>(92.94-Imàgen!C83)*0.94</f>
-        <v>10.217800000000004</v>
+        <f>(92.94-Imàgen!C83)*0.00094</f>
+        <v>1.0217800000000004E-2</v>
       </c>
       <c r="C83">
-        <f>(49-Imàgen!A83)*1.4</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A83)*0.0014</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
-        <f>(128.27-Imàgen!B84)*0.94</f>
-        <v>-16.346599999999984</v>
+        <f>(128.27-Imàgen!B84)*0.00094</f>
+        <v>-1.6346599999999985E-2</v>
       </c>
       <c r="B84">
-        <f>(92.94-Imàgen!C84)*0.94</f>
-        <v>-3.5814000000000021</v>
+        <f>(92.94-Imàgen!C84)*0.00094</f>
+        <v>-3.5814000000000019E-3</v>
       </c>
       <c r="C84">
-        <f>(49-Imàgen!A84)*1.4</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A84)*0.0014</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
-        <f>(128.27-Imàgen!B85)*0.94</f>
-        <v>-1.0246000000000031</v>
+        <f>(128.27-Imàgen!B85)*0.00094</f>
+        <v>-1.0246000000000031E-3</v>
       </c>
       <c r="B85">
-        <f>(92.94-Imàgen!C85)*0.94</f>
-        <v>-16.6098</v>
+        <f>(92.94-Imàgen!C85)*0.00094</f>
+        <v>-1.6609800000000001E-2</v>
       </c>
       <c r="C85">
-        <f>(49-Imàgen!A85)*1.4</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A85)*0.0014</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
-        <f>(128.27-Imàgen!B86)*0.94</f>
-        <v>8.685600000000008</v>
+        <f>(128.27-Imàgen!B86)*0.00094</f>
+        <v>8.6856000000000086E-3</v>
       </c>
       <c r="B86">
-        <f>(92.94-Imàgen!C86)*0.94</f>
-        <v>-0.77080000000000692</v>
+        <f>(92.94-Imàgen!C86)*0.00094</f>
+        <v>-7.7080000000000692E-4</v>
       </c>
       <c r="C86">
-        <f>(49-Imàgen!A86)*1.4</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A86)*0.0014</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
-        <f>(128.27-Imàgen!B87)*0.94</f>
-        <v>-2.3029999999999893</v>
+        <f>(128.27-Imàgen!B87)*0.00094</f>
+        <v>-2.3029999999999891E-3</v>
       </c>
       <c r="B87">
-        <f>(92.94-Imàgen!C87)*0.94</f>
-        <v>9.7007999999999939</v>
+        <f>(92.94-Imàgen!C87)*0.00094</f>
+        <v>9.7007999999999938E-3</v>
       </c>
       <c r="C87">
-        <f>(49-Imàgen!A87)*1.4</f>
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A87)*0.0014</f>
+        <v>5.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
-        <f>(128.27-Imàgen!B88)*0.94</f>
-        <v>-15.838999999999993</v>
+        <f>(128.27-Imàgen!B88)*0.00094</f>
+        <v>-1.5838999999999995E-2</v>
       </c>
       <c r="B88">
-        <f>(92.94-Imàgen!C88)*0.94</f>
-        <v>-2.8106000000000084</v>
+        <f>(92.94-Imàgen!C88)*0.00094</f>
+        <v>-2.8106000000000086E-3</v>
       </c>
       <c r="C88">
-        <f>(49-Imàgen!A88)*1.4</f>
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A88)*0.0014</f>
+        <v>5.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
-        <f>(128.27-Imàgen!B89)*0.94</f>
-        <v>-2.0491999999999795</v>
+        <f>(128.27-Imàgen!B89)*0.00094</f>
+        <v>-2.0491999999999798E-3</v>
       </c>
       <c r="B89">
-        <f>(92.94-Imàgen!C89)*0.94</f>
-        <v>-15.077600000000006</v>
+        <f>(92.94-Imàgen!C89)*0.00094</f>
+        <v>-1.5077600000000005E-2</v>
       </c>
       <c r="C89">
-        <f>(49-Imàgen!A89)*1.4</f>
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A89)*0.0014</f>
+        <v>5.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
-        <f>(128.27-Imàgen!B90)*0.94</f>
-        <v>7.4072000000000084</v>
+        <f>(128.27-Imàgen!B90)*0.00094</f>
+        <v>7.4072000000000087E-3</v>
       </c>
       <c r="B90">
-        <f>(92.94-Imàgen!C90)*0.94</f>
-        <v>-1.5321999999999956</v>
+        <f>(92.94-Imàgen!C90)*0.00094</f>
+        <v>-1.5321999999999957E-3</v>
       </c>
       <c r="C90">
-        <f>(49-Imàgen!A90)*1.4</f>
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A90)*0.0014</f>
+        <v>5.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
-        <f>(128.27-Imàgen!B91)*0.94</f>
-        <v>-2.0491999999999795</v>
+        <f>(128.27-Imàgen!B91)*0.00094</f>
+        <v>-2.0491999999999798E-3</v>
       </c>
       <c r="B91">
-        <f>(92.94-Imàgen!C91)*0.94</f>
-        <v>9.4375999999999927</v>
+        <f>(92.94-Imàgen!C91)*0.00094</f>
+        <v>9.4375999999999922E-3</v>
       </c>
       <c r="C91">
-        <f>(49-Imàgen!A91)*1.4</f>
-        <v>4.1999999999999993</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A91)*0.0014</f>
+        <v>4.1999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
-        <f>(128.27-Imàgen!B92)*0.94</f>
-        <v>-13.028399999999985</v>
+        <f>(128.27-Imàgen!B92)*0.00094</f>
+        <v>-1.3028399999999985E-2</v>
       </c>
       <c r="B92">
-        <f>(92.94-Imàgen!C92)*0.94</f>
-        <v>-1.5321999999999956</v>
+        <f>(92.94-Imàgen!C92)*0.00094</f>
+        <v>-1.5321999999999957E-3</v>
       </c>
       <c r="C92">
-        <f>(49-Imàgen!A92)*1.4</f>
-        <v>4.1999999999999993</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A92)*0.0014</f>
+        <v>4.1999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
-        <f>(128.27-Imàgen!B93)*0.94</f>
-        <v>-1.0246000000000031</v>
+        <f>(128.27-Imàgen!B93)*0.00094</f>
+        <v>-1.0246000000000031E-3</v>
       </c>
       <c r="B93">
-        <f>(92.94-Imàgen!C93)*0.94</f>
-        <v>-11.75</v>
+        <f>(92.94-Imàgen!C93)*0.00094</f>
+        <v>-1.175E-2</v>
       </c>
       <c r="C93">
-        <f>(49-Imàgen!A93)*1.4</f>
-        <v>4.1999999999999993</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A93)*0.0014</f>
+        <v>4.1999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
-        <f>(128.27-Imàgen!B94)*0.94</f>
-        <v>6.3826000000000054</v>
+        <f>(128.27-Imàgen!B94)*0.00094</f>
+        <v>6.3826000000000056E-3</v>
       </c>
       <c r="B94">
-        <f>(92.94-Imàgen!C94)*0.94</f>
-        <v>-1.2783999999999993</v>
+        <f>(92.94-Imàgen!C94)*0.00094</f>
+        <v>-1.2783999999999994E-3</v>
       </c>
       <c r="C94">
-        <f>(49-Imàgen!A94)*1.4</f>
-        <v>4.1999999999999993</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A94)*0.0014</f>
+        <v>4.1999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
-        <f>(128.27-Imàgen!B95)*0.94</f>
-        <v>-2.56619999999999</v>
+        <f>(128.27-Imàgen!B95)*0.00094</f>
+        <v>-2.5661999999999903E-3</v>
       </c>
       <c r="B95">
-        <f>(92.94-Imàgen!C95)*0.94</f>
-        <v>7.6609999999999916</v>
+        <f>(92.94-Imàgen!C95)*0.00094</f>
+        <v>7.6609999999999916E-3</v>
       </c>
       <c r="C95">
-        <f>(49-Imàgen!A95)*1.4</f>
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A95)*0.0014</f>
+        <v>2.8E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
-        <f>(128.27-Imàgen!B96)*0.94</f>
-        <v>-9.4564000000000021</v>
+        <f>(128.27-Imàgen!B96)*0.00094</f>
+        <v>-9.456400000000002E-3</v>
       </c>
       <c r="B96">
-        <f>(92.94-Imàgen!C96)*0.94</f>
-        <v>-3.0644000000000045</v>
+        <f>(92.94-Imàgen!C96)*0.00094</f>
+        <v>-3.0644000000000049E-3</v>
       </c>
       <c r="C96">
-        <f>(49-Imàgen!A96)*1.4</f>
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A96)*0.0014</f>
+        <v>2.8E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
-        <f>(128.27-Imàgen!B97)*0.94</f>
-        <v>0.50760000000000582</v>
+        <f>(128.27-Imàgen!B97)*0.00094</f>
+        <v>5.0760000000000583E-4</v>
       </c>
       <c r="B97">
-        <f>(92.94-Imàgen!C97)*0.94</f>
-        <v>-10.734800000000002</v>
+        <f>(92.94-Imàgen!C97)*0.00094</f>
+        <v>-1.0734800000000001E-2</v>
       </c>
       <c r="C97">
-        <f>(49-Imàgen!A97)*1.4</f>
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A97)*0.0014</f>
+        <v>2.8E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
-        <f>(128.27-Imàgen!B98)*0.94</f>
-        <v>5.3674000000000071</v>
+        <f>(128.27-Imàgen!B98)*0.00094</f>
+        <v>5.3674000000000074E-3</v>
       </c>
       <c r="B98">
-        <f>(92.94-Imàgen!C98)*0.94</f>
-        <v>-1.0246000000000031</v>
+        <f>(92.94-Imàgen!C98)*0.00094</f>
+        <v>-1.0246000000000031E-3</v>
       </c>
       <c r="C98">
-        <f>(49-Imàgen!A98)*1.4</f>
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A98)*0.0014</f>
+        <v>2.8E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
-        <f>(128.27-Imàgen!B99)*0.94</f>
-        <v>-0.51699999999998392</v>
+        <f>(128.27-Imàgen!B99)*0.00094</f>
+        <v>-5.1699999999998394E-4</v>
       </c>
       <c r="B99">
-        <f>(92.94-Imàgen!C99)*0.94</f>
-        <v>7.1533999999999986</v>
+        <f>(92.94-Imàgen!C99)*0.00094</f>
+        <v>7.153399999999999E-3</v>
       </c>
       <c r="C99">
-        <f>(49-Imàgen!A99)*1.4</f>
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A99)*0.0014</f>
+        <v>1.4E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
-        <f>(128.27-Imàgen!B100)*0.94</f>
-        <v>-5.3673999999999804</v>
+        <f>(128.27-Imàgen!B100)*0.00094</f>
+        <v>-5.3673999999999805E-3</v>
       </c>
       <c r="B100">
-        <f>(92.94-Imàgen!C100)*0.94</f>
-        <v>-0.77080000000000692</v>
+        <f>(92.94-Imàgen!C100)*0.00094</f>
+        <v>-7.7080000000000692E-4</v>
       </c>
       <c r="C100">
-        <f>(49-Imàgen!A100)*1.4</f>
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A100)*0.0014</f>
+        <v>1.4E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
-        <f>(128.27-Imàgen!B101)*0.94</f>
-        <v>1.0246000000000031</v>
+        <f>(128.27-Imàgen!B101)*0.00094</f>
+        <v>1.0246000000000031E-3</v>
       </c>
       <c r="B101">
-        <f>(92.94-Imàgen!C101)*0.94</f>
-        <v>-7.4071999999999951</v>
+        <f>(92.94-Imàgen!C101)*0.00094</f>
+        <v>-7.4071999999999957E-3</v>
       </c>
       <c r="C101">
-        <f>(49-Imàgen!A101)*1.4</f>
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A101)*0.0014</f>
+        <v>1.4E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102">
-        <f>(128.27-Imàgen!B102)*0.94</f>
-        <v>4.342800000000004</v>
+        <f>(128.27-Imàgen!B102)*0.00094</f>
+        <v>4.3428000000000043E-3</v>
       </c>
       <c r="B102">
-        <f>(92.94-Imàgen!C102)*0.94</f>
-        <v>-0.77080000000000692</v>
+        <f>(92.94-Imàgen!C102)*0.00094</f>
+        <v>-7.7080000000000692E-4</v>
       </c>
       <c r="C102">
-        <f>(49-Imàgen!A102)*1.4</f>
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+        <f>(49-Imàgen!A102)*0.0014</f>
+        <v>1.4E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103">
-        <f>(128.27-Imàgen!B103)*0.94</f>
+        <f>(128.27-Imàgen!B103)*0.00094</f>
         <v>0</v>
       </c>
       <c r="B103">
-        <f>(92.94-Imàgen!C103)*0.94</f>
+        <f>(92.94-Imàgen!C103)*0.00094</f>
         <v>0</v>
       </c>
       <c r="C103">
-        <f>(49-Imàgen!A103)*1.4</f>
+        <f>(49-Imàgen!A103)*0.0014</f>
         <v>0</v>
       </c>
     </row>
